--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34990.85704875422</v>
+        <v>48314.32003877444</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="D4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="F4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="G4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="H4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="I4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="J4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="K4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="L4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="M4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="N4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="O4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
       <c r="P4" t="n">
-        <v>49082.27614186519</v>
+        <v>47782.0800026998</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30446.26429029526</v>
+        <v>-28252.22972342768</v>
       </c>
       <c r="C6" t="n">
-        <v>-30446.26429029526</v>
+        <v>-28252.22972342768</v>
       </c>
       <c r="D6" t="n">
-        <v>-30446.26429029526</v>
+        <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>-94337.44972698271</v>
+        <v>-93037.25358781726</v>
       </c>
       <c r="F6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="G6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="H6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="I6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="J6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="K6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="L6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="M6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="N6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="O6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
       <c r="P6" t="n">
-        <v>38762.55027301734</v>
+        <v>40062.74641218273</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48314.32003877444</v>
+        <v>62040.67817619261</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>86005.92442515711</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515709</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989086</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D4" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E4" t="n">
         <v>47782.0800026998</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="D6" t="n">
         <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>-93037.25358781726</v>
+        <v>-93037.25358781732</v>
       </c>
       <c r="F6" t="n">
         <v>40062.74641218273</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62040.67817619261</v>
+        <v>-63069.22062128386</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="C2" t="n">
         <v>86005.92442515711</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515709</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="E2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989087</v>
       </c>
       <c r="F2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="G2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="H2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="I2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="J2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="K2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="L2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="M2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
       <c r="P2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989089</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346242</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="E6" t="n">
-        <v>-93037.25358781732</v>
+        <v>-107847.2704269312</v>
       </c>
       <c r="F6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="G6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="H6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="I6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="J6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="K6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="L6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="M6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="N6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="O6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
       <c r="P6" t="n">
-        <v>40062.74641218273</v>
+        <v>25252.72957306885</v>
       </c>
     </row>
   </sheetData>
